--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -52,256 +55,274 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>salad</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>years</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>cream</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>fan</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>dish</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>making</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>far</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>every</t>
   </si>
   <si>
     <t>fast</t>
   </si>
   <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
     <t>also</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>buy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -665,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -776,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -784,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3023255813953488</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -826,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -834,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1405405405405405</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,45 +873,69 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>0.890625</v>
+      </c>
+      <c r="L5">
+        <v>114</v>
+      </c>
+      <c r="M5">
+        <v>114</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>14</v>
       </c>
-      <c r="K5">
-        <v>0.8984375</v>
-      </c>
-      <c r="L5">
-        <v>115</v>
-      </c>
-      <c r="M5">
-        <v>115</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.1189189189189189</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>163</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,21 +947,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.846749226006192</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>547</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>547</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8390092879256966</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>542</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>542</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7532467532467533</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7272727272727273</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.696969696969697</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L12">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="M12">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6711864406779661</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L13">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6666666666666666</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1110,12 +1155,12 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
         <v>0.6666666666666666</v>
@@ -1141,16 +1186,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6575342465753424</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,47 +1207,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>0.6338028169014085</v>
+      </c>
+      <c r="L17">
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>26</v>
-      </c>
-      <c r="K17">
-        <v>0.6530612244897959</v>
-      </c>
-      <c r="L17">
-        <v>32</v>
-      </c>
-      <c r="M17">
-        <v>32</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6508828250401284</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L18">
-        <v>811</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>811</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>435</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L19">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6239316239316239</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L20">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5964912280701754</v>
+        <v>0.6284109149277689</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5915492957746479</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5846153846153846</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5735294117647058</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,15 +1467,15 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5571428571428572</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L27">
         <v>39</v>
@@ -1448,21 +1493,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5384615384615384</v>
+        <v>0.55</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5294117647058824</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5288461538461539</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="L30">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5089820359281437</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L31">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1552,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.4861111111111111</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1578,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.4761904761904762</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1604,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.4736842105263158</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L34">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1630,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.4698795180722892</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1656,21 +1701,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.4444444444444444</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1682,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.44</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="L37">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="M37">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1708,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.4342105263157895</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1734,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.4262295081967213</v>
+        <v>0.45</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1760,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.4193548387096774</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1786,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.3975903614457831</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L41">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1812,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.3947368421052632</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1838,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.3504901960784313</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L43">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="M43">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1864,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>265</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.3424124513618677</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L44">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1890,21 +1935,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>169</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3423423423423423</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1916,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3382352941176471</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1942,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3294117647058823</v>
+        <v>0.3799019607843137</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1968,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>57</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3267326732673267</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M48">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1994,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.3237410071942446</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="L49">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2020,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.3232876712328767</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L50">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2046,21 +2091,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>494</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.2870813397129187</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="L51">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M51">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2072,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.2781954887218045</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L52">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2098,21 +2143,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.2781456953642384</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L53">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2124,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>109</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2685185185185185</v>
+        <v>0.3136986301369863</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2150,21 +2195,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>79</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.2612612612612613</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L55">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M55">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2176,21 +2221,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2604951560818084</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L56">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="M56">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2202,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>687</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2385321100917431</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2228,21 +2273,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2380952380952381</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2254,21 +2299,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>80</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2351097178683386</v>
+        <v>0.2680301399354144</v>
       </c>
       <c r="L59">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="M59">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2280,21 +2325,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>244</v>
+        <v>680</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.23</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2306,15 +2351,15 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.2213114754098361</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L61">
         <v>27</v>
@@ -2332,21 +2377,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.2147651006711409</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L62">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M62">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2358,21 +2403,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.2105960264900662</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L63">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2384,21 +2429,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>596</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.20076726342711</v>
+        <v>0.2163009404388715</v>
       </c>
       <c r="L64">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="M64">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2410,47 +2455,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>625</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.1782945736434109</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="L65">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.1724137931034483</v>
+        <v>0.2145695364238411</v>
       </c>
       <c r="L66">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="M66">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2462,21 +2507,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>168</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.1656441717791411</v>
+        <v>0.20076726342711</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2488,73 +2533,73 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>136</v>
+        <v>625</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.1621621621621622</v>
+        <v>0.1885245901639344</v>
       </c>
       <c r="L68">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M68">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>310</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.147766323024055</v>
+        <v>0.1840490797546012</v>
       </c>
       <c r="L69">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M69">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>248</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K70">
-        <v>0.1454545454545454</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="L70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2566,21 +2611,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K71">
-        <v>0.1439114391143911</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L71">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M71">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2592,21 +2637,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>232</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1412429378531073</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2618,21 +2663,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>152</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1363636363636364</v>
+        <v>0.1644204851752022</v>
       </c>
       <c r="L73">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M73">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2644,21 +2689,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>380</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1341463414634146</v>
+        <v>0.1557177615571776</v>
       </c>
       <c r="L74">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M74">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2670,21 +2715,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>142</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1336515513126492</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L75">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M75">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2696,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>363</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K76">
-        <v>0.1313868613138686</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="L76">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="M76">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2722,21 +2767,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>357</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K77">
-        <v>0.1201923076923077</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2748,21 +2793,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>183</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K78">
-        <v>0.1120218579234973</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="L78">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M78">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2774,21 +2819,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>325</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79">
-        <v>0.1111111111111111</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="L79">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M79">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2800,21 +2845,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>240</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K80">
-        <v>0.1092436974789916</v>
+        <v>0.1328413284132841</v>
       </c>
       <c r="L80">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M80">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2826,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K81">
-        <v>0.1008771929824561</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L81">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M81">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2852,73 +2897,73 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>410</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K82">
-        <v>0.09469153515064563</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L82">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M82">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N82">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>631</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K83">
-        <v>0.07850467289719626</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="L83">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="M83">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="N83">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>986</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K84">
-        <v>0.07106598984771574</v>
+        <v>0.1097852028639618</v>
       </c>
       <c r="L84">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M84">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -2930,85 +2975,241 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K85">
-        <v>0.07037037037037037</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="L85">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N85">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O85">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>502</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K86">
-        <v>0.04230769230769231</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L86">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M86">
         <v>24</v>
       </c>
       <c r="N86">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>498</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K87">
-        <v>0.04076322636600174</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="L87">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M87">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K88">
+        <v>0.08895265423242468</v>
+      </c>
+      <c r="L88">
+        <v>62</v>
+      </c>
+      <c r="M88">
+        <v>63</v>
+      </c>
+      <c r="N88">
+        <v>0.98</v>
+      </c>
+      <c r="O88">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K89">
+        <v>0.08469945355191257</v>
+      </c>
+      <c r="L89">
+        <v>31</v>
+      </c>
+      <c r="M89">
+        <v>31</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K90">
+        <v>0.07614213197969544</v>
+      </c>
+      <c r="L90">
+        <v>30</v>
+      </c>
+      <c r="M90">
+        <v>30</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K91">
+        <v>0.07563025210084033</v>
+      </c>
+      <c r="L91">
+        <v>81</v>
+      </c>
+      <c r="M91">
+        <v>82</v>
+      </c>
+      <c r="N91">
+        <v>0.99</v>
+      </c>
+      <c r="O91">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K92">
+        <v>0.05535055350553506</v>
+      </c>
+      <c r="L92">
+        <v>30</v>
+      </c>
+      <c r="M92">
+        <v>30</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K93">
+        <v>0.03816131830008673</v>
+      </c>
+      <c r="L93">
+        <v>44</v>
+      </c>
+      <c r="M93">
+        <v>48</v>
+      </c>
+      <c r="N93">
         <v>0.92</v>
       </c>
-      <c r="O87">
+      <c r="O93">
         <v>0.07999999999999996</v>
       </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1106</v>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
